--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nshmelyov/dev/agh/mes/lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF2707-8036-0147-90BA-6A42BC5DE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13616EED-53F2-234D-997B-B725C2D00B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{F3448F09-A91D-074D-AC45-6BC2F627FD54}"/>
   </bookViews>
@@ -2249,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A89DCCA-F7AF-4948-BD8E-4D3700AD25AF}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -1,47 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nshmelyov/dev/agh/mes/lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13616EED-53F2-234D-997B-B725C2D00B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AAD604-8C4B-6D4E-8BE0-7F8756AEBC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{F3448F09-A91D-074D-AC45-6BC2F627FD54}"/>
+    <workbookView xWindow="10320" yWindow="740" windowWidth="18980" windowHeight="16860" activeTab="2" xr2:uid="{F3448F09-A91D-074D-AC45-6BC2F627FD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="zmiana NE" sheetId="3" r:id="rId3"/>
+    <sheet name="zmiana DT" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$L$15:$L$17</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$D$29:$D$33</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100000</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">10000</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$L$12</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet2!$D$27</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$D$27</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>C=</t>
   </si>
@@ -101,12 +130,65 @@
   <si>
     <t>t3</t>
   </si>
+  <si>
+    <t>J5=</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>J6=</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>dt, s</t>
+  </si>
+  <si>
+    <t>time, t</t>
+  </si>
+  <si>
+    <t>dT, K</t>
+  </si>
+  <si>
+    <t>4dt</t>
+  </si>
+  <si>
+    <t>dt/8</t>
+  </si>
+  <si>
+    <t>dt/4</t>
+  </si>
+  <si>
+    <t>8dt</t>
+  </si>
+  <si>
+    <t>100dt</t>
+  </si>
+  <si>
+    <t>time, s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,8 +203,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +229,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,19 +258,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,6 +897,1041 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$29:$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>429.98922311653547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>426.23943675120694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>422.49007780842788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>418.74114734026949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414.99265520826117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C6C-8047-81A0-E8A65BFE8D02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1852640320"/>
+        <c:axId val="1852642032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1852640320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852642032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1852642032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852640320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>time(NE)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'zmiana NE'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'zmiana NE'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'zmiana NE'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1705081462860099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.151388883590601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.365323066711397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.294886350631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>473.51924228668202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>795.24115276336602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1222.5032548904401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1660.0261311531001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2113.8959949016498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2534.2977519035298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF44-F34D-9140-A68953E31D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1953684480"/>
+        <c:axId val="1934670048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1953684480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934670048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1934670048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953684480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'zmiana NE'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dt, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'zmiana NE'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'zmiana NE'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42B6-4D49-AB3F-BCFD4ED3453A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1245970288"/>
+        <c:axId val="1245972000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1245970288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245972000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1245972000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245970288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -821,6 +2012,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1834,6 +3145,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1910,6 +4769,124 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0859DF98-A9C6-D9AA-CE8E-1747DBF3B73E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E926A234-2136-965F-D602-8903A84EDDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F77D6D-C414-AA36-37D2-EA4D72C1C5B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3724E0BF-0737-D274-5D47-070051632466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,14 +5224,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A89DCCA-F7AF-4948-BD8E-4D3700AD25AF}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2434,8 +5413,510 @@
         <v>415.00001735894597</v>
       </c>
     </row>
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <v>430</v>
+      </c>
+      <c r="J23">
+        <f>I23-L15</f>
+        <v>1.1489536291264812E-6</v>
+      </c>
+      <c r="K23" s="5">
+        <f>L15/I23 * 100</f>
+        <v>99.999999732801484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="4">
+        <v>422.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J25" si="0">I24-L16</f>
+        <v>2.6760076025311719E-5</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" ref="K24:K25" si="1">L16/I24 * 100</f>
+        <v>99.999993666254198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="4">
+        <v>415</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>-1.7358945967771433E-5</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>100.00000418287856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C7739F-1052-4442-9D37-24550894C082}">
+  <dimension ref="B14:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <f>(D15/2)*(D29^2 -2*D29*D30+D30^2)</f>
+        <v>562.4359114235267</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <f>(D15/2)*(D30^2-2*D30*D31+D31^2)</f>
+        <v>562.30769927264191</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <f>(D15/2)*(D31^2-2*D31*D32+D32^2)</f>
+        <v>562.17918620444834</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <f>(D15/2)*(D32^2-2*D32*D33+D33^2)</f>
+        <v>562.04773055040278</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <f>D17*D29</f>
+        <v>-128996.76693496064</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <f>(D16/2)*(D33^2 - 2*D33*D18+D18^2)</f>
+        <v>2247.7971019377583</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(D21:D26)</f>
+        <v>-124499.99930557187</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>429.98922311653547</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>426.23943675120694</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>422.49007780842788</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>418.74114734026949</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1">
+        <v>414.99265520826117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>430</v>
+      </c>
+      <c r="C41" s="6">
+        <f>B41-D29</f>
+        <v>1.0776883464529874E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>426.25</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:C45" si="0">B42-D30</f>
+        <v>1.056324879306203E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>422.5</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9221915721159348E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>418.74</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.1473402694832657E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>415</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="0"/>
+        <v>7.344791738830736E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B76C04E-C039-5A45-842C-96F03658400E}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>2.1705081462860099</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.43669999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>13.151388883590601</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>69.365323066711397</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>252.294886350631</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>473.51924228668202</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>795.24115276336602</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>350</v>
+      </c>
+      <c r="B8">
+        <v>1222.5032548904401</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <v>1660.0261311531001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>2113.8959949016498</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>2534.2977519035298</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E5627-2300-9B4E-A9E8-4FDC2F128C41}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>68.983485999999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>19.9893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>37.500213000000002</v>
+      </c>
+      <c r="D3" s="7">
+        <v>19.9953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7.6774550000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20.031300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.7452000000000001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.769638</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20.1752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3.4843000000000002</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.85682999999999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20.366800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43.478299999999997</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.7628999999999995E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>24.858599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>